--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>686.180641251137</v>
+        <v>734.9630437058497</v>
       </c>
       <c r="AB2" t="n">
-        <v>938.8626255131971</v>
+        <v>1005.608860679442</v>
       </c>
       <c r="AC2" t="n">
-        <v>849.2588942361878</v>
+        <v>909.6349623970953</v>
       </c>
       <c r="AD2" t="n">
-        <v>686180.641251137</v>
+        <v>734963.0437058497</v>
       </c>
       <c r="AE2" t="n">
-        <v>938862.6255131972</v>
+        <v>1005608.860679442</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.009120335604283e-06</v>
+        <v>3.717398637561966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.563541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>849258.8942361878</v>
+        <v>909634.9623970953</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.9495216123356</v>
+        <v>274.2554714936745</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.9919624644845</v>
+        <v>375.2484353951232</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.35272955571</v>
+        <v>339.4352513854987</v>
       </c>
       <c r="AD3" t="n">
-        <v>249949.5216123355</v>
+        <v>274255.4714936744</v>
       </c>
       <c r="AE3" t="n">
-        <v>341991.9624644845</v>
+        <v>375248.4353951232</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.730118926885413e-06</v>
+        <v>6.901696613696044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.073958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>309352.72955571</v>
+        <v>339435.2513854987</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.9234522201764</v>
+        <v>214.3146534475324</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.8616461588899</v>
+        <v>293.234763741995</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.0608153676723</v>
+        <v>265.2488494481213</v>
       </c>
       <c r="AD4" t="n">
-        <v>189923.4522201764</v>
+        <v>214314.6534475324</v>
       </c>
       <c r="AE4" t="n">
-        <v>259861.6461588899</v>
+        <v>293234.763741995</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.339332296147937e-06</v>
+        <v>8.028900847682303e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.502083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>235060.8153676723</v>
+        <v>265248.8494481213</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>167.5069884314176</v>
+        <v>179.7026785536466</v>
       </c>
       <c r="AB5" t="n">
-        <v>229.1904514585393</v>
+        <v>245.8771327196403</v>
       </c>
       <c r="AC5" t="n">
-        <v>207.3168364422214</v>
+        <v>222.4109642636723</v>
       </c>
       <c r="AD5" t="n">
-        <v>167506.9884314176</v>
+        <v>179702.6785536467</v>
       </c>
       <c r="AE5" t="n">
-        <v>229190.4514585393</v>
+        <v>245877.1327196403</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.683619545060667e-06</v>
+        <v>8.665922397540439e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.244791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>207316.8364422214</v>
+        <v>222410.9642636723</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>155.5156021473946</v>
+        <v>167.7112922696237</v>
       </c>
       <c r="AB6" t="n">
-        <v>212.7833077221211</v>
+        <v>229.469988983222</v>
       </c>
       <c r="AC6" t="n">
-        <v>192.4755674764307</v>
+        <v>207.5696952978818</v>
       </c>
       <c r="AD6" t="n">
-        <v>155515.6021473946</v>
+        <v>167711.2922696237</v>
       </c>
       <c r="AE6" t="n">
-        <v>212783.3077221211</v>
+        <v>229469.9889832221</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.848906601424277e-06</v>
+        <v>8.97174672634945e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.134375</v>
       </c>
       <c r="AH6" t="n">
-        <v>192475.5674764307</v>
+        <v>207569.6952978818</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>150.5583364510074</v>
+        <v>162.7540265732365</v>
       </c>
       <c r="AB7" t="n">
-        <v>206.0005580972</v>
+        <v>222.6872393583009</v>
       </c>
       <c r="AC7" t="n">
-        <v>186.3401539560611</v>
+        <v>201.4342817775121</v>
       </c>
       <c r="AD7" t="n">
-        <v>150558.3364510075</v>
+        <v>162754.0265732365</v>
       </c>
       <c r="AE7" t="n">
-        <v>206000.5580972</v>
+        <v>222687.2393583009</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.92739242342218e-06</v>
+        <v>9.116966045766262e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.084375</v>
       </c>
       <c r="AH7" t="n">
-        <v>186340.1539560611</v>
+        <v>201434.2817775121</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.4706283716169</v>
+        <v>450.7617647697685</v>
       </c>
       <c r="AB2" t="n">
-        <v>568.4652430085559</v>
+        <v>616.752132763562</v>
       </c>
       <c r="AC2" t="n">
-        <v>514.211718061798</v>
+        <v>557.8901748296619</v>
       </c>
       <c r="AD2" t="n">
-        <v>415470.6283716169</v>
+        <v>450761.7647697686</v>
       </c>
       <c r="AE2" t="n">
-        <v>568465.243008556</v>
+        <v>616752.132763562</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.649470748544577e-06</v>
+        <v>5.050300145901677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.933333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>514211.7180617981</v>
+        <v>557890.1748296618</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.0462580026372</v>
+        <v>213.5736822680714</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.0296744482615</v>
+        <v>292.2209342849156</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.2128072729355</v>
+        <v>264.3317784515065</v>
       </c>
       <c r="AD3" t="n">
-        <v>190046.2580026372</v>
+        <v>213573.6822680714</v>
       </c>
       <c r="AE3" t="n">
-        <v>260029.6744482614</v>
+        <v>292220.9342849156</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.227442162692567e-06</v>
+        <v>8.058157193381055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>235212.8072729355</v>
+        <v>264331.7784515065</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.7461513376326</v>
+        <v>166.5099529789007</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.7305111784312</v>
+        <v>227.8262635663066</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.523248357261</v>
+        <v>206.0828447277731</v>
       </c>
       <c r="AD4" t="n">
-        <v>154746.1513376326</v>
+        <v>166509.9529789007</v>
       </c>
       <c r="AE4" t="n">
-        <v>211730.5111784312</v>
+        <v>227826.2635663066</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.806806380262778e-06</v>
+        <v>9.162514806739252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.270833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>191523.248357261</v>
+        <v>206082.8447277731</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>140.5624958804477</v>
+        <v>152.3262975217158</v>
       </c>
       <c r="AB5" t="n">
-        <v>192.3238080432042</v>
+        <v>208.4195604310796</v>
       </c>
       <c r="AC5" t="n">
-        <v>173.968693731775</v>
+        <v>188.5282901022871</v>
       </c>
       <c r="AD5" t="n">
-        <v>140562.4958804477</v>
+        <v>152326.2975217158</v>
       </c>
       <c r="AE5" t="n">
-        <v>192323.8080432042</v>
+        <v>208419.5604310796</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.04887468059688e-06</v>
+        <v>9.623934346157474e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.113541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>173968.693731775</v>
+        <v>188528.2901022871</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.804354819637</v>
+        <v>152.5681564609051</v>
       </c>
       <c r="AB6" t="n">
-        <v>192.6547301138662</v>
+        <v>208.7504825017417</v>
       </c>
       <c r="AC6" t="n">
-        <v>174.2680330644652</v>
+        <v>188.8276294349773</v>
       </c>
       <c r="AD6" t="n">
-        <v>140804.354819637</v>
+        <v>152568.1564609051</v>
       </c>
       <c r="AE6" t="n">
-        <v>192654.7301138662</v>
+        <v>208750.4825017417</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.054458550367679e-06</v>
+        <v>9.634578063712633e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.110416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>174268.0330644652</v>
+        <v>188827.6294349773</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.2830288023477</v>
+        <v>158.2099137847292</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.8366965070736</v>
+        <v>216.4697837689608</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.9098258229507</v>
+        <v>195.8102114233629</v>
       </c>
       <c r="AD2" t="n">
-        <v>137283.0288023477</v>
+        <v>158209.9137847292</v>
       </c>
       <c r="AE2" t="n">
-        <v>187836.6965070736</v>
+        <v>216469.7837689608</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.736070364965732e-06</v>
+        <v>1.008659043386559e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.704166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>169909.8258229507</v>
+        <v>195810.2114233629</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.9323844533018</v>
+        <v>139.6886772350911</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.7285353354298</v>
+        <v>191.1282108224701</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.197952313995</v>
+        <v>172.8872026317561</v>
       </c>
       <c r="AD3" t="n">
-        <v>118932.3844533018</v>
+        <v>139688.6772350911</v>
       </c>
       <c r="AE3" t="n">
-        <v>162728.5353354298</v>
+        <v>191128.2108224701</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.194622477176004e-06</v>
+        <v>1.106318642844019e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.377083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>147197.952313995</v>
+        <v>172887.2026317561</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.8974257514018</v>
+        <v>233.7557664977816</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.9274061675911</v>
+        <v>319.8349522987083</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.2571414387119</v>
+        <v>289.3103533425893</v>
       </c>
       <c r="AD2" t="n">
-        <v>211897.4257514018</v>
+        <v>233755.7664977816</v>
       </c>
       <c r="AE2" t="n">
-        <v>289927.4061675911</v>
+        <v>319834.9522987083</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.866461298288412e-06</v>
+        <v>7.850253193617176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.340625</v>
       </c>
       <c r="AH2" t="n">
-        <v>262257.1414387118</v>
+        <v>289310.3533425893</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.0253069277641</v>
+        <v>137.9971924825153</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.8016288995248</v>
+        <v>188.8138467609564</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.2142453695208</v>
+        <v>170.7937182280422</v>
       </c>
       <c r="AD3" t="n">
-        <v>127025.3069277641</v>
+        <v>137997.1924825153</v>
       </c>
       <c r="AE3" t="n">
-        <v>173801.6288995248</v>
+        <v>188813.8467609564</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.158181577024933e-06</v>
+        <v>1.047289194805145e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.253125</v>
       </c>
       <c r="AH3" t="n">
-        <v>157214.2453695208</v>
+        <v>170793.7182280422</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.6025122028476</v>
+        <v>136.5743977575988</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.8548983876218</v>
+        <v>186.8671162490534</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.4533080854198</v>
+        <v>169.0327809439412</v>
       </c>
       <c r="AD4" t="n">
-        <v>125602.5122028476</v>
+        <v>136574.3977575988</v>
       </c>
       <c r="AE4" t="n">
-        <v>171854.8983876218</v>
+        <v>186867.1162490534</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.206351240699443e-06</v>
+        <v>1.05706930190886e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.222916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>155453.3080854198</v>
+        <v>169032.7809439412</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.1502733580054</v>
+        <v>135.2432499519921</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.5536840798823</v>
+        <v>185.0457810953267</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.516981599326</v>
+        <v>167.3852714610256</v>
       </c>
       <c r="AD2" t="n">
-        <v>115150.2733580054</v>
+        <v>135243.2499519921</v>
       </c>
       <c r="AE2" t="n">
-        <v>157553.6840798823</v>
+        <v>185045.7810953267</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.062223245556823e-06</v>
+        <v>1.127258239395377e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.598958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>142516.981599326</v>
+        <v>167385.2714610256</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.2146413475373</v>
+        <v>135.307617941524</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.6417552028751</v>
+        <v>185.1338522183194</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.596647337949</v>
+        <v>167.4649371996486</v>
       </c>
       <c r="AD3" t="n">
-        <v>115214.6413475373</v>
+        <v>135307.617941524</v>
       </c>
       <c r="AE3" t="n">
-        <v>157641.7552028751</v>
+        <v>185133.8522183194</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.084959875667464e-06</v>
+        <v>1.132321242819969e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.582291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>142596.647337949</v>
+        <v>167464.9371996486</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.4737132143909</v>
+        <v>511.0201528511458</v>
       </c>
       <c r="AB2" t="n">
-        <v>650.564110839716</v>
+        <v>699.2003177489631</v>
       </c>
       <c r="AC2" t="n">
-        <v>588.4751851736371</v>
+        <v>632.4696207568106</v>
       </c>
       <c r="AD2" t="n">
-        <v>475473.7132143909</v>
+        <v>511020.1528511458</v>
       </c>
       <c r="AE2" t="n">
-        <v>650564.110839716</v>
+        <v>699200.3177489631</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.480747357748263e-06</v>
+        <v>4.690506975062493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.280208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>588475.1851736371</v>
+        <v>632469.6207568106</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.4261424560505</v>
+        <v>225.1806031112339</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.6001344024834</v>
+        <v>308.1020354437308</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.2972443824092</v>
+        <v>278.697209604995</v>
       </c>
       <c r="AD3" t="n">
-        <v>201426.1424560506</v>
+        <v>225180.6031112339</v>
       </c>
       <c r="AE3" t="n">
-        <v>275600.1344024834</v>
+        <v>308102.0354437308</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.095244718747388e-06</v>
+        <v>7.743139928327074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.804166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>249297.2443824092</v>
+        <v>278697.209604995</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.834581706313</v>
+        <v>187.4184501609042</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.1657025621035</v>
+        <v>256.4341918285041</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.7716425281804</v>
+        <v>231.9604724681151</v>
       </c>
       <c r="AD4" t="n">
-        <v>163834.581706313</v>
+        <v>187418.4501609042</v>
       </c>
       <c r="AE4" t="n">
-        <v>224165.7025621035</v>
+        <v>256434.1918285041</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.677480774918726e-06</v>
+        <v>8.84401070989808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.330208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>202771.6425281804</v>
+        <v>231960.4724681151</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.8495368717047</v>
+        <v>155.7268567078474</v>
       </c>
       <c r="AB5" t="n">
-        <v>196.8212825414538</v>
+        <v>213.0723555316259</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.0369355761582</v>
+        <v>192.7370289686777</v>
       </c>
       <c r="AD5" t="n">
-        <v>143849.5368717047</v>
+        <v>155726.8567078474</v>
       </c>
       <c r="AE5" t="n">
-        <v>196821.2825414538</v>
+        <v>213072.3555316259</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.01264414555319e-06</v>
+        <v>9.477725434146892e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.108333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>178036.9355761582</v>
+        <v>192737.0289686777</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.5912292042636</v>
+        <v>152.4685490404064</v>
       </c>
       <c r="AB6" t="n">
-        <v>192.363122244474</v>
+        <v>208.6141952346461</v>
       </c>
       <c r="AC6" t="n">
-        <v>174.0042558408535</v>
+        <v>188.7043492333729</v>
       </c>
       <c r="AD6" t="n">
-        <v>140591.2292042637</v>
+        <v>152468.5490404064</v>
       </c>
       <c r="AE6" t="n">
-        <v>192363.122244474</v>
+        <v>208614.1952346461</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.081292064839767e-06</v>
+        <v>9.607522425860504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.065625</v>
       </c>
       <c r="AH6" t="n">
-        <v>174004.2558408535</v>
+        <v>188704.3492333729</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.392601924683</v>
+        <v>132.9917798942803</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.1487604818209</v>
+        <v>181.9652204345182</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.3415805341314</v>
+        <v>164.5987151860897</v>
       </c>
       <c r="AD2" t="n">
-        <v>113392.601924683</v>
+        <v>132991.7798942803</v>
       </c>
       <c r="AE2" t="n">
-        <v>155148.7604818209</v>
+        <v>181965.2204345182</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.941819094894796e-06</v>
+        <v>1.132945013249817e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.772916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>140341.5805341314</v>
+        <v>164598.7151860897</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.468539346588</v>
+        <v>326.259210188453</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.2190436210749</v>
+        <v>446.4022449203508</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.5911208614665</v>
+        <v>403.7982411946375</v>
       </c>
       <c r="AD2" t="n">
-        <v>303468.539346588</v>
+        <v>326259.210188453</v>
       </c>
       <c r="AE2" t="n">
-        <v>415219.0436210749</v>
+        <v>446402.2449203508</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.205885102320786e-06</v>
+        <v>6.283490495427634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>375591.1208614666</v>
+        <v>403798.2411946375</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.2836618988765</v>
+        <v>179.903651031598</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.2024450753885</v>
+        <v>246.1521121302532</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.6638257559837</v>
+        <v>222.6597000252724</v>
       </c>
       <c r="AD3" t="n">
-        <v>157283.6618988765</v>
+        <v>179903.651031598</v>
       </c>
       <c r="AE3" t="n">
-        <v>215202.4450753885</v>
+        <v>246152.1121302532</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670286396998115e-06</v>
+        <v>9.153696795065691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.467708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>194663.8257559837</v>
+        <v>222659.7000252724</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.3087746393914</v>
+        <v>144.7041548145993</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.3989466296001</v>
+        <v>197.9906085140042</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.9910471618517</v>
+        <v>179.0946627190481</v>
       </c>
       <c r="AD4" t="n">
-        <v>133308.7746393914</v>
+        <v>144704.1548145993</v>
       </c>
       <c r="AE4" t="n">
-        <v>182398.9466296001</v>
+        <v>197990.6085140042</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.126959427627475e-06</v>
+        <v>1.004876962390801e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.159374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>164991.0471618517</v>
+        <v>179094.6627190481</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.0492517578166</v>
+        <v>144.4446319330244</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.0438559736881</v>
+        <v>197.6355178580922</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.6698458597669</v>
+        <v>178.7734614169633</v>
       </c>
       <c r="AD5" t="n">
-        <v>133049.2517578166</v>
+        <v>144444.6319330244</v>
       </c>
       <c r="AE5" t="n">
-        <v>182043.8559736881</v>
+        <v>197635.5178580922</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.142819369447086e-06</v>
+        <v>1.00798548906911e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.148958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>164669.8458597669</v>
+        <v>178773.4614169633</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.5974918253368</v>
+        <v>408.5351236233504</v>
       </c>
       <c r="AB2" t="n">
-        <v>511.1725702735279</v>
+        <v>558.9757794391029</v>
       </c>
       <c r="AC2" t="n">
-        <v>462.3869776018299</v>
+        <v>505.6279155768678</v>
       </c>
       <c r="AD2" t="n">
-        <v>373597.4918253368</v>
+        <v>408535.1236233505</v>
       </c>
       <c r="AE2" t="n">
-        <v>511172.5702735279</v>
+        <v>558975.7794391029</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.825157168661455e-06</v>
+        <v>5.431938393166592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.616666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>462386.9776018299</v>
+        <v>505627.9155768679</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.1406861237622</v>
+        <v>202.4324406557711</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.1081898837167</v>
+        <v>276.9769959940836</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.715408252791</v>
+        <v>250.542700236145</v>
       </c>
       <c r="AD3" t="n">
-        <v>179140.6861237622</v>
+        <v>202432.4406557711</v>
       </c>
       <c r="AE3" t="n">
-        <v>245108.1898837167</v>
+        <v>276976.9959940836</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.364185302711176e-06</v>
+        <v>8.391032528615735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.636458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>221715.408252791</v>
+        <v>250542.7002361449</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.8321547317751</v>
+        <v>158.4781215063306</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.9022318814133</v>
+        <v>216.8367574061452</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.7284048387617</v>
+        <v>196.1421616116652</v>
       </c>
       <c r="AD4" t="n">
-        <v>146832.1547317751</v>
+        <v>158478.1215063306</v>
       </c>
       <c r="AE4" t="n">
-        <v>200902.2318814133</v>
+        <v>216836.7574061452</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.924067345141657e-06</v>
+        <v>9.467519456726564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.222916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>181728.4048387617</v>
+        <v>196142.1616116652</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.2103246365151</v>
+        <v>149.8562914110705</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.1054635767856</v>
+        <v>205.0399891015175</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.0575035442556</v>
+        <v>185.4712603171592</v>
       </c>
       <c r="AD5" t="n">
-        <v>138210.3246365151</v>
+        <v>149856.2914110705</v>
       </c>
       <c r="AE5" t="n">
-        <v>189105.4635767856</v>
+        <v>205039.9891015175</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.072912176557871e-06</v>
+        <v>9.753703872716846e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.128125</v>
       </c>
       <c r="AH5" t="n">
-        <v>171057.5035442556</v>
+        <v>185471.2603171592</v>
       </c>
     </row>
   </sheetData>
@@ -7663,28 +7663,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>608.7468164193937</v>
+        <v>645.0254722460533</v>
       </c>
       <c r="AB2" t="n">
-        <v>832.9142502391533</v>
+        <v>882.5523076425263</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.4220831988201</v>
+        <v>798.3227540710662</v>
       </c>
       <c r="AD2" t="n">
-        <v>608746.8164193936</v>
+        <v>645025.4722460533</v>
       </c>
       <c r="AE2" t="n">
-        <v>832914.2502391533</v>
+        <v>882552.3076425263</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.161056100390982e-06</v>
+        <v>4.025883606650613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.088541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>753422.0831988201</v>
+        <v>798322.7540710663</v>
       </c>
     </row>
     <row r="3">
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.6006199423711</v>
+        <v>260.7085045513393</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.3084768850416</v>
+        <v>356.7128775746187</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.9793871613803</v>
+        <v>322.6687011885644</v>
       </c>
       <c r="AD3" t="n">
-        <v>224600.6199423712</v>
+        <v>260708.5045513393</v>
       </c>
       <c r="AE3" t="n">
-        <v>307308.4768850416</v>
+        <v>356712.8775746187</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.851697226288854e-06</v>
+        <v>7.175419795114282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.977083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>277979.3871613803</v>
+        <v>322668.7011885644</v>
       </c>
     </row>
     <row r="4">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.6927508577607</v>
+        <v>205.7078695359072</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.6000374419215</v>
+        <v>281.4585822896074</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.8739987808807</v>
+        <v>254.5965702255712</v>
       </c>
       <c r="AD4" t="n">
-        <v>181692.7508577607</v>
+        <v>205707.8695359072</v>
       </c>
       <c r="AE4" t="n">
-        <v>248600.0374419215</v>
+        <v>281458.5822896074</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.437399896937825e-06</v>
+        <v>8.266539447080081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.452083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>224873.9987808807</v>
+        <v>254596.5702255713</v>
       </c>
     </row>
     <row r="5">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.1541493033673</v>
+        <v>172.2470942512878</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.1299725791777</v>
+        <v>235.6760733599925</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.2165155471319</v>
+        <v>213.1834796920293</v>
       </c>
       <c r="AD5" t="n">
-        <v>160154.1493033674</v>
+        <v>172247.0942512878</v>
       </c>
       <c r="AE5" t="n">
-        <v>219129.9725791777</v>
+        <v>235676.0733599925</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.780910175279778e-06</v>
+        <v>8.906473041604838e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.204166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>198216.5155471319</v>
+        <v>213183.4796920293</v>
       </c>
     </row>
     <row r="6">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>149.2875897785865</v>
+        <v>161.3805347265069</v>
       </c>
       <c r="AB6" t="n">
-        <v>204.2618664386079</v>
+        <v>220.8079672194227</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.7674005890954</v>
+        <v>199.7343647339927</v>
       </c>
       <c r="AD6" t="n">
-        <v>149287.5897785865</v>
+        <v>161380.5347265069</v>
       </c>
       <c r="AE6" t="n">
-        <v>204261.8664386079</v>
+        <v>220807.9672194227</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.932960529648605e-06</v>
+        <v>9.189731319318279e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.105208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>184767.4005890954</v>
+        <v>199734.3647339927</v>
       </c>
     </row>
     <row r="7">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.5363793971073</v>
+        <v>160.6293243450277</v>
       </c>
       <c r="AB7" t="n">
-        <v>203.2340272536055</v>
+        <v>219.7801280344203</v>
       </c>
       <c r="AC7" t="n">
-        <v>183.837656933328</v>
+        <v>198.8046210782253</v>
       </c>
       <c r="AD7" t="n">
-        <v>148536.3793971073</v>
+        <v>160629.3243450277</v>
       </c>
       <c r="AE7" t="n">
-        <v>203234.0272536055</v>
+        <v>219780.1280344203</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.949430200528014e-06</v>
+        <v>9.220413067000975e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.094791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>183837.656933328</v>
+        <v>198804.6210782253</v>
       </c>
     </row>
   </sheetData>
@@ -8490,28 +8490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.1621824637604</v>
+        <v>258.488490296553</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.1275167869385</v>
+        <v>353.6753561311034</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.2886800972072</v>
+        <v>319.9210765284301</v>
       </c>
       <c r="AD2" t="n">
-        <v>236162.1824637604</v>
+        <v>258488.490296553</v>
       </c>
       <c r="AE2" t="n">
-        <v>323127.5167869385</v>
+        <v>353675.3561311034</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.630985502077095e-06</v>
+        <v>7.278300834827475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.563541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>292288.6800972072</v>
+        <v>319921.0765284301</v>
       </c>
     </row>
     <row r="3">
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.0789104233817</v>
+        <v>146.1994834210417</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.8209245021337</v>
+        <v>200.0365830825799</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.1818748654987</v>
+        <v>180.9453723463429</v>
       </c>
       <c r="AD3" t="n">
-        <v>135078.9104233817</v>
+        <v>146199.4834210417</v>
       </c>
       <c r="AE3" t="n">
-        <v>184820.9245021337</v>
+        <v>200036.5830825799</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.033012983228753e-06</v>
+        <v>1.008866121238332e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.292708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>167181.8748654987</v>
+        <v>180945.3723463429</v>
       </c>
     </row>
     <row r="4">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.9272719294755</v>
+        <v>139.0478449271354</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.0357372067532</v>
+        <v>190.2513957871994</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.3305721119895</v>
+        <v>172.0940695928337</v>
       </c>
       <c r="AD4" t="n">
-        <v>127927.2719294754</v>
+        <v>139047.8449271354</v>
       </c>
       <c r="AE4" t="n">
-        <v>175035.7372067532</v>
+        <v>190251.3957871993</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.188599375667913e-06</v>
+        <v>1.040053372449606e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.19375</v>
       </c>
       <c r="AH4" t="n">
-        <v>158330.5721119895</v>
+        <v>172094.0695928337</v>
       </c>
     </row>
   </sheetData>
@@ -8999,28 +8999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.4859802204261</v>
+        <v>178.7764782341699</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.479265928587</v>
+        <v>244.6098645814586</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.9142272154735</v>
+        <v>221.2646424179763</v>
       </c>
       <c r="AD2" t="n">
-        <v>157485.9802204261</v>
+        <v>178776.4782341699</v>
       </c>
       <c r="AE2" t="n">
-        <v>215479.2659285869</v>
+        <v>244609.8645814586</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.410509514828152e-06</v>
+        <v>9.22706172909818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.913541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>194914.2272154735</v>
+        <v>221264.6424179763</v>
       </c>
     </row>
     <row r="3">
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.1441894833667</v>
+        <v>142.2640952965183</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.7548245555141</v>
+        <v>194.6520114335389</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.9354167383391</v>
+        <v>176.0746966581909</v>
       </c>
       <c r="AD3" t="n">
-        <v>121144.1894833667</v>
+        <v>142264.0952965183</v>
       </c>
       <c r="AE3" t="n">
-        <v>165754.8245555141</v>
+        <v>194652.011433539</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.204782372411144e-06</v>
+        <v>1.088873021933179e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.316666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>149935.4167383391</v>
+        <v>176074.6966581909</v>
       </c>
     </row>
     <row r="4">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.3669633381486</v>
+        <v>142.4868691513002</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.0596335717154</v>
+        <v>194.9568204497402</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.2111352098364</v>
+        <v>176.3504151296882</v>
       </c>
       <c r="AD4" t="n">
-        <v>121366.9633381486</v>
+        <v>142486.8691513002</v>
       </c>
       <c r="AE4" t="n">
-        <v>166059.6335717154</v>
+        <v>194956.8204497402</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.217708156448588e-06</v>
+        <v>1.091577176788973e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.308333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>150211.1352098364</v>
+        <v>176350.4151296882</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.6266663422524</v>
+        <v>141.1574367480401</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.0467265623323</v>
+        <v>193.1378323851824</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.2948986238046</v>
+        <v>174.7050287330454</v>
       </c>
       <c r="AD2" t="n">
-        <v>120626.6663422524</v>
+        <v>141157.4367480401</v>
       </c>
       <c r="AE2" t="n">
-        <v>165046.7265623323</v>
+        <v>193137.8323851824</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.037315514575885e-06</v>
+        <v>1.095039739595008e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.544791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>149294.8986238046</v>
+        <v>174705.0287330454</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.0686190189812</v>
+        <v>137.4287972241767</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.1784492446656</v>
+        <v>188.0361432926688</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.8912428606643</v>
+        <v>170.090237687254</v>
       </c>
       <c r="AD3" t="n">
-        <v>117068.6190189812</v>
+        <v>137428.7972241767</v>
       </c>
       <c r="AE3" t="n">
-        <v>160178.4492446656</v>
+        <v>188036.1432926688</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.154912875236054e-06</v>
+        <v>1.120603709694112e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.464583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>144891.2428606643</v>
+        <v>170090.237687254</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.0596573025745</v>
+        <v>141.9991606386348</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.3756521302291</v>
+        <v>194.2895161465308</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.3061162076787</v>
+        <v>175.7467974126094</v>
       </c>
       <c r="AD2" t="n">
-        <v>123059.6573025745</v>
+        <v>141999.1606386348</v>
       </c>
       <c r="AE2" t="n">
-        <v>168375.6521302291</v>
+        <v>194289.5161465307</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.668588198569822e-06</v>
+        <v>1.11043629118839e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.105208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>152306.1162076787</v>
+        <v>175746.7974126094</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>336.2953664419264</v>
+        <v>370.6945431447949</v>
       </c>
       <c r="AB2" t="n">
-        <v>460.1341566703184</v>
+        <v>507.2006278197534</v>
       </c>
       <c r="AC2" t="n">
-        <v>416.2195985600473</v>
+        <v>458.7941117611875</v>
       </c>
       <c r="AD2" t="n">
-        <v>336295.3664419265</v>
+        <v>370694.5431447949</v>
       </c>
       <c r="AE2" t="n">
-        <v>460134.1566703183</v>
+        <v>507200.6278197534</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.01184619054607e-06</v>
+        <v>5.844723044032491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.321875</v>
       </c>
       <c r="AH2" t="n">
-        <v>416219.5985600473</v>
+        <v>458794.1117611875</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.6292846990524</v>
+        <v>190.6757973013593</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.3577826072478</v>
+        <v>260.8910378900862</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.4681977409478</v>
+        <v>235.991963396804</v>
       </c>
       <c r="AD3" t="n">
-        <v>167629.2846990524</v>
+        <v>190675.7973013593</v>
       </c>
       <c r="AE3" t="n">
-        <v>229357.7826072478</v>
+        <v>260891.0378900862</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.521154419986471e-06</v>
+        <v>8.773653683601035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.544791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>207468.1977409478</v>
+        <v>235991.963396804</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.0394596988961</v>
+        <v>149.5628055086005</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.8716786311064</v>
+        <v>204.6384287420741</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.8460307056727</v>
+        <v>185.1080243148273</v>
       </c>
       <c r="AD4" t="n">
-        <v>138039.459698896</v>
+        <v>149562.8055086005</v>
       </c>
       <c r="AE4" t="n">
-        <v>188871.6786311064</v>
+        <v>204638.4287420741</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.059236882862715e-06</v>
+        <v>9.817844778164313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.167708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>170846.0307056727</v>
+        <v>185108.0243148273</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.3343865058847</v>
+        <v>146.8577323155891</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.1704781490234</v>
+        <v>200.9372282599909</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.4980676029309</v>
+        <v>181.7600612120856</v>
       </c>
       <c r="AD5" t="n">
-        <v>135334.3865058846</v>
+        <v>146857.7323155891</v>
       </c>
       <c r="AE5" t="n">
-        <v>185170.4781490233</v>
+        <v>200937.228259991</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.114168378214965e-06</v>
+        <v>9.924443640262996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.134375</v>
       </c>
       <c r="AH5" t="n">
-        <v>167498.0676029309</v>
+        <v>181760.0612120856</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>530.467637964873</v>
+        <v>578.3296199267993</v>
       </c>
       <c r="AB2" t="n">
-        <v>725.809224844056</v>
+        <v>791.2961000859839</v>
       </c>
       <c r="AC2" t="n">
-        <v>656.5390111045833</v>
+        <v>715.7759108848285</v>
       </c>
       <c r="AD2" t="n">
-        <v>530467.637964873</v>
+        <v>578329.6199267993</v>
       </c>
       <c r="AE2" t="n">
-        <v>725809.2248440559</v>
+        <v>791296.1000859839</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.320187998717431e-06</v>
+        <v>4.353582731179243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.657291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>656539.0111045833</v>
+        <v>715775.9108848284</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.3103275027866</v>
+        <v>237.2839889110352</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.860600676661</v>
+        <v>324.662421858707</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.0058345770923</v>
+        <v>293.6770959831793</v>
       </c>
       <c r="AD3" t="n">
-        <v>213310.3275027866</v>
+        <v>237283.9889110352</v>
       </c>
       <c r="AE3" t="n">
-        <v>291860.600676661</v>
+        <v>324662.421858707</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.966619973267428e-06</v>
+        <v>7.442934894204188e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.89375</v>
       </c>
       <c r="AH3" t="n">
-        <v>264005.8345770923</v>
+        <v>293677.0959831793</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.2726149812416</v>
+        <v>196.075684188898</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.7109919486103</v>
+        <v>268.2794013558093</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.215065699558</v>
+        <v>242.6751918229941</v>
       </c>
       <c r="AD4" t="n">
-        <v>172272.6149812416</v>
+        <v>196075.684188898</v>
       </c>
       <c r="AE4" t="n">
-        <v>235710.9919486103</v>
+        <v>268279.4013558094</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.561939171557976e-06</v>
+        <v>8.559987211796511e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.385416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>213215.065699558</v>
+        <v>242675.1918229941</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.4773542521088</v>
+        <v>163.4642744647842</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.2579987968702</v>
+        <v>223.6590318574415</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.4775862801842</v>
+        <v>202.3133277644543</v>
       </c>
       <c r="AD5" t="n">
-        <v>151477.3542521088</v>
+        <v>163464.2744647842</v>
       </c>
       <c r="AE5" t="n">
-        <v>207257.9987968702</v>
+        <v>223659.0318574415</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.901634385327252e-06</v>
+        <v>9.197388671224657e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.151041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>187477.5862801842</v>
+        <v>202313.3277644543</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>145.6485265079012</v>
+        <v>157.6354467205765</v>
       </c>
       <c r="AB6" t="n">
-        <v>199.2827395275179</v>
+        <v>215.6837725880893</v>
       </c>
       <c r="AC6" t="n">
-        <v>180.2634745621497</v>
+        <v>195.0992160464198</v>
       </c>
       <c r="AD6" t="n">
-        <v>145648.5265079011</v>
+        <v>157635.4467205765</v>
       </c>
       <c r="AE6" t="n">
-        <v>199282.7395275179</v>
+        <v>215683.7725880893</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.985557340802333e-06</v>
+        <v>9.354861052733314e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.097916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>180263.4745621497</v>
+        <v>195099.2160464198</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>146.1819756940984</v>
+        <v>158.1688959067737</v>
       </c>
       <c r="AB7" t="n">
-        <v>200.0126282381897</v>
+        <v>216.4136612987611</v>
       </c>
       <c r="AC7" t="n">
-        <v>180.9237037186805</v>
+        <v>195.7594452029506</v>
       </c>
       <c r="AD7" t="n">
-        <v>146181.9756940984</v>
+        <v>158168.8959067737</v>
       </c>
       <c r="AE7" t="n">
-        <v>200012.6282381897</v>
+        <v>216413.6612987611</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.985557340802333e-06</v>
+        <v>9.354861052733314e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.097916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>180923.7037186805</v>
+        <v>195759.4452029506</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.4289446035169</v>
+        <v>152.8241826386451</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.6174155409556</v>
+        <v>209.1007888132031</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.23849026833</v>
+        <v>189.144503003731</v>
       </c>
       <c r="AD2" t="n">
-        <v>125428.9446035169</v>
+        <v>152824.1826386451</v>
       </c>
       <c r="AE2" t="n">
-        <v>171617.4155409556</v>
+        <v>209100.788813203</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.12768322313341e-06</v>
+        <v>1.032302249310999e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.808333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>155238.49026833</v>
+        <v>189144.503003731</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.522142100536</v>
+        <v>211.064784703201</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.3125559486453</v>
+        <v>288.7881499519129</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.5641295564403</v>
+        <v>261.2266142373015</v>
       </c>
       <c r="AD2" t="n">
-        <v>189522.142100536</v>
+        <v>211064.784703201</v>
       </c>
       <c r="AE2" t="n">
-        <v>259312.5559486453</v>
+        <v>288788.1499519129</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.122665353705384e-06</v>
+        <v>8.489736566246497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.126041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>234564.1295564403</v>
+        <v>261226.6142373015</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.4141059370767</v>
+        <v>134.2281424199705</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.860624389125</v>
+        <v>183.6568661866318</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.7448033948485</v>
+        <v>166.1289126418618</v>
       </c>
       <c r="AD3" t="n">
-        <v>123414.1059370767</v>
+        <v>134228.1424199705</v>
       </c>
       <c r="AE3" t="n">
-        <v>168860.624389125</v>
+        <v>183656.8661866318</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.203056464380929e-06</v>
+        <v>1.071456810875964e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.269791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>152744.8033948485</v>
+        <v>166128.9126418618</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.4769846889304</v>
+        <v>134.2910211718242</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.9466578714259</v>
+        <v>183.7428996689327</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.8226259623474</v>
+        <v>166.2067352093607</v>
       </c>
       <c r="AD4" t="n">
-        <v>123476.9846889304</v>
+        <v>134291.0211718242</v>
       </c>
       <c r="AE4" t="n">
-        <v>168946.6578714259</v>
+        <v>183742.8996689327</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.217263542166415e-06</v>
+        <v>1.07438245090315e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.260416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>152822.6259623474</v>
+        <v>166206.7352093607</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.8950438956408</v>
+        <v>296.5936250273899</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.7045971688</v>
+        <v>405.812482549734</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.3748952635818</v>
+        <v>367.0823087765831</v>
       </c>
       <c r="AD2" t="n">
-        <v>262895.0438956408</v>
+        <v>296593.6250273898</v>
       </c>
       <c r="AE2" t="n">
-        <v>359704.5971688</v>
+        <v>405812.482549734</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409844870651878e-06</v>
+        <v>6.75553048137967e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.803125000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>325374.8952635818</v>
+        <v>367082.3087765832</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.3146516677888</v>
+        <v>168.6666741247434</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.1941613586437</v>
+        <v>230.7771845858688</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.0879115729017</v>
+        <v>208.7521339868729</v>
       </c>
       <c r="AD3" t="n">
-        <v>146314.6516677887</v>
+        <v>168666.6741247434</v>
       </c>
       <c r="AE3" t="n">
-        <v>200194.1613586437</v>
+        <v>230777.1845858688</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.842457673186915e-06</v>
+        <v>9.593800204098756e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.382291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>181087.9115729017</v>
+        <v>208752.1339868729</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.722533424819</v>
+        <v>141.9839302621434</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.8603373029141</v>
+        <v>194.2686772734985</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.790157742834</v>
+        <v>175.7279473723717</v>
       </c>
       <c r="AD4" t="n">
-        <v>130722.533424819</v>
+        <v>141983.9302621434</v>
       </c>
       <c r="AE4" t="n">
-        <v>178860.3373029141</v>
+        <v>194268.6772734985</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.156116863381977e-06</v>
+        <v>1.021521680822788e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.176041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>161790.157742834</v>
+        <v>175727.9473723717</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.2774323255023</v>
+        <v>142.5388291628267</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.6195744592404</v>
+        <v>195.0279144298248</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.4769343705568</v>
+        <v>176.4147240000945</v>
       </c>
       <c r="AD5" t="n">
-        <v>131277.4323255023</v>
+        <v>142538.8291628267</v>
       </c>
       <c r="AE5" t="n">
-        <v>179619.5744592404</v>
+        <v>195027.9144298248</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.156116863381977e-06</v>
+        <v>1.021521680822788e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.176041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>162476.9343705568</v>
+        <v>176414.7240000945</v>
       </c>
     </row>
   </sheetData>
